--- a/data/league_data/spain/18/spain_possession.xlsx
+++ b/data/league_data/spain/18/spain_possession.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB54BA86-77B6-A447-9060-BD7133834ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05575607-AD1F-3644-9A5B-7DF3D58B74EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="589">
   <si>
     <t>Touches</t>
   </si>
@@ -742,9 +742,6 @@
     <t>Riza Durmisi</t>
   </si>
   <si>
-    <t>Nacho</t>
-  </si>
-  <si>
     <t>Sergio Asenjo</t>
   </si>
   <si>
@@ -1784,12 +1781,18 @@
   </si>
   <si>
     <t>Bruno Gama</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2650,14 +2653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
@@ -2691,7 +2694,7 @@
     <col min="32" max="32" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3573,7 +3576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4061,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4159,7 +4162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5039,7 +5042,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5431,7 +5434,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6211,7 +6214,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6407,7 +6410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6505,7 +6508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6701,7 +6704,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6995,7 +6998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7191,7 +7194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7289,7 +7292,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7485,7 +7488,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7681,7 +7684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8073,7 +8076,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8171,7 +8174,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8365,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8463,7 +8466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8561,7 +8564,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8757,7 +8760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8855,7 +8858,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -9051,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -9149,7 +9152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9247,7 +9250,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9345,7 +9348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9443,7 +9446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9541,12 +9544,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>144</v>
+        <v>588</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>31</v>
@@ -9639,7 +9642,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9737,7 +9740,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9835,7 +9838,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9933,7 +9936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -10031,7 +10034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -10129,7 +10132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -10227,7 +10230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10325,7 +10328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10423,7 +10426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10521,7 +10524,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10619,7 +10622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10717,7 +10720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10913,7 +10916,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -11011,7 +11014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -11109,7 +11112,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -11205,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -11303,7 +11306,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -11401,7 +11404,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -11497,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11595,7 +11598,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="92" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11693,7 +11696,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11791,7 +11794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11889,7 +11892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11987,7 +11990,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -12085,7 +12088,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -12183,7 +12186,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -12281,7 +12284,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -12379,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -12475,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12573,7 +12576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12671,7 +12674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12769,7 +12772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12867,7 +12870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12965,7 +12968,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -13063,7 +13066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -13161,7 +13164,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -13259,7 +13262,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -13357,7 +13360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -13455,7 +13458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -13553,7 +13556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -13651,7 +13654,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13749,7 +13752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13847,7 +13850,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13945,7 +13948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -14043,7 +14046,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="117" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -14141,7 +14144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -14237,7 +14240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -14335,7 +14338,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -14433,7 +14436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -14531,7 +14534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -14629,7 +14632,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -14727,7 +14730,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14825,7 +14828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14921,7 +14924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -15019,7 +15022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -15117,7 +15120,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -15215,7 +15218,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="129" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -15313,7 +15316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -15411,7 +15414,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -15509,7 +15512,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="132" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -15607,7 +15610,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -15705,7 +15708,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -15803,7 +15806,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="135" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15901,7 +15904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="136" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15999,7 +16002,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="137" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -16097,7 +16100,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -16195,7 +16198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -16293,7 +16296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -16391,7 +16394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -16489,7 +16492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -16587,7 +16590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -16685,7 +16688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -16781,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16879,7 +16882,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="146" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16977,7 +16980,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -17075,7 +17078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -17173,7 +17176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -17271,7 +17274,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -17369,7 +17372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -17467,7 +17470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="152" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -17565,7 +17568,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -17663,7 +17666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="154" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -17761,7 +17764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="155" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -17859,7 +17862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -17957,7 +17960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -18055,12 +18058,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="158" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>240</v>
+        <v>587</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>31</v>
@@ -18153,12 +18156,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>31</v>
@@ -18251,12 +18254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>31</v>
@@ -18349,15 +18352,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>32</v>
@@ -18447,12 +18450,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="162" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>72</v>
@@ -18545,15 +18548,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>47</v>
@@ -18643,12 +18646,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>31</v>
@@ -18741,12 +18744,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>31</v>
@@ -18839,12 +18842,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>67</v>
@@ -18935,12 +18938,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>31</v>
@@ -19033,12 +19036,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>31</v>
@@ -19131,12 +19134,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>137</v>
@@ -19229,12 +19232,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="170" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>31</v>
@@ -19327,12 +19330,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="171" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>31</v>
@@ -19425,12 +19428,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="172" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>113</v>
@@ -19523,12 +19526,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="173" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>31</v>
@@ -19619,12 +19622,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>95</v>
@@ -19717,12 +19720,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>72</v>
@@ -19815,12 +19818,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="176" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>31</v>
@@ -19913,12 +19916,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>31</v>
@@ -20011,12 +20014,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>31</v>
@@ -20109,12 +20112,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="179" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>31</v>
@@ -20207,12 +20210,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="180" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>31</v>
@@ -20305,12 +20308,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>67</v>
@@ -20403,12 +20406,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>31</v>
@@ -20501,12 +20504,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="183" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>31</v>
@@ -20599,12 +20602,12 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>31</v>
@@ -20697,12 +20700,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="185" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>31</v>
@@ -20795,12 +20798,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>31</v>
@@ -20893,15 +20896,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>55</v>
@@ -20991,12 +20994,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>67</v>
@@ -21089,12 +21092,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="189" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>31</v>
@@ -21187,15 +21190,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>85</v>
@@ -21285,12 +21288,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="191" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>31</v>
@@ -21383,12 +21386,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>31</v>
@@ -21481,12 +21484,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>95</v>
@@ -21579,12 +21582,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>31</v>
@@ -21677,12 +21680,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>31</v>
@@ -21775,12 +21778,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="196" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>31</v>
@@ -21873,18 +21876,18 @@
         <v>124</v>
       </c>
     </row>
-    <row r="197" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>88</v>
@@ -21971,12 +21974,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="198" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>67</v>
@@ -22069,12 +22072,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>31</v>
@@ -22167,12 +22170,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>31</v>
@@ -22265,12 +22268,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="201" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>67</v>
@@ -22363,12 +22366,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="202" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>31</v>
@@ -22461,12 +22464,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>87</v>
@@ -22559,12 +22562,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="204" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>31</v>
@@ -22657,12 +22660,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="205" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>113</v>
@@ -22755,12 +22758,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>72</v>
@@ -22853,12 +22856,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>31</v>
@@ -22951,15 +22954,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>32</v>
@@ -23049,12 +23052,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>95</v>
@@ -23147,12 +23150,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>31</v>
@@ -23245,12 +23248,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="211" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>31</v>
@@ -23343,15 +23346,15 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>32</v>
@@ -23441,12 +23444,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="213" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>31</v>
@@ -23539,12 +23542,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>117</v>
@@ -23637,12 +23640,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>137</v>
@@ -23735,12 +23738,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="216" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>31</v>
@@ -23833,12 +23836,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>105</v>
@@ -23931,12 +23934,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="218" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>137</v>
@@ -24029,12 +24032,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="219" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>31</v>
@@ -24127,12 +24130,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="220" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>31</v>
@@ -24225,12 +24228,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>31</v>
@@ -24323,12 +24326,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>31</v>
@@ -24421,15 +24424,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C223" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>55</v>
@@ -24519,15 +24522,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="224" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D224" s="4" t="s">
         <v>55</v>
@@ -24617,12 +24620,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>95</v>
@@ -24715,12 +24718,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="226" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>67</v>
@@ -24813,12 +24816,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="227" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>100</v>
@@ -24911,12 +24914,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>31</v>
@@ -25009,15 +25012,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>85</v>
@@ -25107,12 +25110,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="230" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>31</v>
@@ -25205,12 +25208,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="231" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>117</v>
@@ -25303,12 +25306,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>31</v>
@@ -25401,12 +25404,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>31</v>
@@ -25497,12 +25500,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>31</v>
@@ -25595,12 +25598,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="235" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>31</v>
@@ -25693,12 +25696,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="236" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>31</v>
@@ -25789,15 +25792,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>47</v>
@@ -25887,12 +25890,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>31</v>
@@ -25985,12 +25988,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="239" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>67</v>
@@ -26083,12 +26086,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>31</v>
@@ -26181,12 +26184,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="241" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>117</v>
@@ -26279,12 +26282,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>31</v>
@@ -26377,12 +26380,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="243" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>31</v>
@@ -26475,12 +26478,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>31</v>
@@ -26573,12 +26576,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="245" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>31</v>
@@ -26671,12 +26674,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="246" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>31</v>
@@ -26769,12 +26772,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>31</v>
@@ -26867,12 +26870,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="248" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>31</v>
@@ -26965,15 +26968,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="249" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>79</v>
@@ -27063,12 +27066,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="250" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>31</v>
@@ -27161,12 +27164,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>31</v>
@@ -27259,12 +27262,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>31</v>
@@ -27357,12 +27360,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>31</v>
@@ -27455,12 +27458,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="254" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>31</v>
@@ -27553,12 +27556,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>31</v>
@@ -27651,12 +27654,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="256" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>67</v>
@@ -27749,7 +27752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -27847,12 +27850,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>31</v>
@@ -27945,12 +27948,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>31</v>
@@ -28043,12 +28046,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="260" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>105</v>
@@ -28141,12 +28144,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>82</v>
@@ -28239,12 +28242,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="262" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>31</v>
@@ -28337,12 +28340,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="263" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>31</v>
@@ -28435,12 +28438,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>67</v>
@@ -28533,12 +28536,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="265" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>113</v>
@@ -28631,7 +28634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="266" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -28729,12 +28732,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="267" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>31</v>
@@ -28827,15 +28830,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>55</v>
@@ -28925,12 +28928,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>95</v>
@@ -29023,12 +29026,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="270" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>188</v>
@@ -29121,12 +29124,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="271" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>50</v>
@@ -29219,15 +29222,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C272" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="D272" s="4" t="s">
         <v>32</v>
@@ -29317,12 +29320,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="273" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>137</v>
@@ -29415,12 +29418,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>72</v>
@@ -29513,12 +29516,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>31</v>
@@ -29609,12 +29612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>31</v>
@@ -29707,12 +29710,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="277" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>87</v>
@@ -29805,12 +29808,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="278" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>31</v>
@@ -29903,12 +29906,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="279" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>72</v>
@@ -30001,15 +30004,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="280" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C280" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>55</v>
@@ -30099,12 +30102,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="281" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>105</v>
@@ -30197,12 +30200,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>50</v>
@@ -30295,15 +30298,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C283" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>32</v>
@@ -30393,12 +30396,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="284" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>31</v>
@@ -30491,15 +30494,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="285" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>47</v>
@@ -30589,12 +30592,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>67</v>
@@ -30687,12 +30690,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="287" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>31</v>
@@ -30785,12 +30788,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="288" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>209</v>
@@ -30883,15 +30886,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="289" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>79</v>
@@ -30981,12 +30984,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="290" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>31</v>
@@ -31079,12 +31082,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="291" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>72</v>
@@ -31177,15 +31180,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="292" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>79</v>
@@ -31275,12 +31278,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="293" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>87</v>
@@ -31373,15 +31376,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="294" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>32</v>
@@ -31471,12 +31474,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="295" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>31</v>
@@ -31569,12 +31572,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="296" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>67</v>
@@ -31665,12 +31668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>31</v>
@@ -31763,12 +31766,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="298" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>31</v>
@@ -31861,12 +31864,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>105</v>
@@ -31959,12 +31962,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>31</v>
@@ -32057,12 +32060,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>31</v>
@@ -32155,12 +32158,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="302" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>50</v>
@@ -32253,12 +32256,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>72</v>
@@ -32351,12 +32354,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>188</v>
@@ -32449,12 +32452,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>95</v>
@@ -32547,12 +32550,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="306" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>31</v>
@@ -32645,12 +32648,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>31</v>
@@ -32743,12 +32746,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="308" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>67</v>
@@ -32841,12 +32844,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="309" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>82</v>
@@ -32939,12 +32942,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>31</v>
@@ -33037,12 +33040,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>31</v>
@@ -33135,12 +33138,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>31</v>
@@ -33233,12 +33236,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="313" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>72</v>
@@ -33331,12 +33334,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>31</v>
@@ -33429,15 +33432,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="315" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C315" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>55</v>
@@ -33527,12 +33530,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>67</v>
@@ -33625,15 +33628,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>47</v>
@@ -33723,12 +33726,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>31</v>
@@ -33821,12 +33824,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>31</v>
@@ -33919,12 +33922,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="320" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>31</v>
@@ -34017,12 +34020,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>67</v>
@@ -34115,12 +34118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>177</v>
@@ -34213,12 +34216,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>31</v>
@@ -34309,12 +34312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>31</v>
@@ -34407,12 +34410,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="325" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>113</v>
@@ -34505,12 +34508,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>31</v>
@@ -34601,12 +34604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>50</v>
@@ -34699,12 +34702,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="328" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>146</v>
@@ -34797,12 +34800,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="329" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>87</v>
@@ -34895,12 +34898,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="330" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>31</v>
@@ -34993,12 +34996,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>31</v>
@@ -35091,12 +35094,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="332" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>31</v>
@@ -35189,12 +35192,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="333" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>31</v>
@@ -35287,12 +35290,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="334" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>31</v>
@@ -35383,12 +35386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>111</v>
@@ -35481,15 +35484,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="336" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>79</v>
@@ -35579,12 +35582,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="337" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>31</v>
@@ -35677,12 +35680,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="338" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>31</v>
@@ -35775,15 +35778,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>85</v>
@@ -35873,12 +35876,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="340" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>87</v>
@@ -35971,12 +35974,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="341" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>95</v>
@@ -36069,15 +36072,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D342" s="4" t="s">
         <v>79</v>
@@ -36167,12 +36170,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="343" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>31</v>
@@ -36263,12 +36266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>31</v>
@@ -36361,12 +36364,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>31</v>
@@ -36459,12 +36462,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>31</v>
@@ -36557,12 +36560,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>31</v>
@@ -36655,12 +36658,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>31</v>
@@ -36753,12 +36756,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>31</v>
@@ -36851,15 +36854,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C350" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>32</v>
@@ -36949,12 +36952,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="351" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>31</v>
@@ -37047,12 +37050,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>87</v>
@@ -37145,12 +37148,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="353" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>31</v>
@@ -37243,12 +37246,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>65</v>
@@ -37341,12 +37344,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="355" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>31</v>
@@ -37439,12 +37442,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>31</v>
@@ -37537,12 +37540,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>31</v>
@@ -37635,12 +37638,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="358" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>31</v>
@@ -37731,12 +37734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>31</v>
@@ -37827,12 +37830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>87</v>
@@ -37925,12 +37928,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="361" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>137</v>
@@ -38023,15 +38026,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D362" s="4" t="s">
         <v>32</v>
@@ -38121,12 +38124,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="363" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>31</v>
@@ -38219,12 +38222,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>31</v>
@@ -38317,12 +38320,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="365" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>100</v>
@@ -38415,12 +38418,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>72</v>
@@ -38513,12 +38516,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>31</v>
@@ -38609,12 +38612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>209</v>
@@ -38707,12 +38710,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>31</v>
@@ -38805,12 +38808,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="370" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>31</v>
@@ -38903,12 +38906,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>87</v>
@@ -39001,12 +39004,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="372" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>31</v>
@@ -39099,12 +39102,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="373" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>31</v>
@@ -39197,12 +39200,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>31</v>
@@ -39295,12 +39298,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="375" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>31</v>
@@ -39393,12 +39396,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>43</v>
@@ -39489,12 +39492,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>31</v>
@@ -39587,12 +39590,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>31</v>
@@ -39685,15 +39688,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="379" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>85</v>
@@ -39783,12 +39786,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="380" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>31</v>
@@ -39881,12 +39884,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>31</v>
@@ -39979,15 +39982,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>79</v>
@@ -40077,12 +40080,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="383" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>87</v>
@@ -40175,15 +40178,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>85</v>
@@ -40273,12 +40276,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="385" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>117</v>
@@ -40371,12 +40374,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="386" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>67</v>
@@ -40469,12 +40472,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="387" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>31</v>
@@ -40567,12 +40570,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>31</v>
@@ -40665,12 +40668,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="389" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>65</v>
@@ -40763,12 +40766,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="390" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>31</v>
@@ -40861,12 +40864,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>31</v>
@@ -40959,12 +40962,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="392" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>31</v>
@@ -41057,15 +41060,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="393" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>32</v>
@@ -41155,12 +41158,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="394" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>31</v>
@@ -41253,12 +41256,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>31</v>
@@ -41351,12 +41354,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="396" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>67</v>
@@ -41449,12 +41452,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>31</v>
@@ -41547,12 +41550,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>50</v>
@@ -41645,12 +41648,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="399" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>31</v>
@@ -41695,18 +41698,18 @@
       <c r="AE399" s="3"/>
       <c r="AF399" s="3"/>
     </row>
-    <row r="400" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E400" s="4" t="s">
         <v>68</v>
@@ -41793,12 +41796,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="401" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>137</v>
@@ -41891,12 +41894,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="402" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>87</v>
@@ -41989,12 +41992,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>31</v>
@@ -42087,12 +42090,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>31</v>
@@ -42185,12 +42188,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="405" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>100</v>
@@ -42283,12 +42286,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="406" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>67</v>
@@ -42379,15 +42382,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>35</v>
@@ -42477,12 +42480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>67</v>
@@ -42575,12 +42578,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="409" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>31</v>
@@ -42673,12 +42676,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>95</v>
@@ -42771,12 +42774,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="411" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>31</v>
@@ -42869,12 +42872,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="412" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>31</v>
@@ -42967,15 +42970,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="413" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>79</v>
@@ -43065,12 +43068,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="414" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>31</v>
@@ -43163,12 +43166,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="415" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>87</v>
@@ -43261,12 +43264,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>31</v>
@@ -43359,12 +43362,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="417" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>50</v>
@@ -43457,15 +43460,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C418" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>509</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>85</v>
@@ -43555,15 +43558,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="419" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>85</v>
@@ -43653,12 +43656,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="420" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>31</v>
@@ -43751,12 +43754,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>117</v>
@@ -43847,12 +43850,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>87</v>
@@ -43945,12 +43948,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="423" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>31</v>
@@ -44041,12 +44044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>67</v>
@@ -44137,15 +44140,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>32</v>
@@ -44235,12 +44238,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="426" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>31</v>
@@ -44333,12 +44336,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>31</v>
@@ -44431,15 +44434,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="428" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C428" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>32</v>
@@ -44529,12 +44532,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="429" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>65</v>
@@ -44625,12 +44628,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="430" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>31</v>
@@ -44723,15 +44726,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C431" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>523</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>47</v>
@@ -44821,15 +44824,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D432" s="4" t="s">
         <v>47</v>
@@ -44919,12 +44922,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>31</v>
@@ -45015,12 +45018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>67</v>
@@ -45113,12 +45116,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>31</v>
@@ -45211,12 +45214,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>188</v>
@@ -45309,12 +45312,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>67</v>
@@ -45405,15 +45408,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D438" s="4" t="s">
         <v>85</v>
@@ -45503,12 +45506,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="439" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>31</v>
@@ -45601,12 +45604,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>209</v>
@@ -45699,12 +45702,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="441" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>31</v>
@@ -45795,12 +45798,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>31</v>
@@ -45893,15 +45896,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="443" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>79</v>
@@ -45991,12 +45994,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="444" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>117</v>
@@ -46089,12 +46092,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="445" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>105</v>
@@ -46187,12 +46190,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>31</v>
@@ -46285,12 +46288,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>31</v>
@@ -46383,12 +46386,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>31</v>
@@ -46481,12 +46484,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>31</v>
@@ -46577,12 +46580,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>31</v>
@@ -46675,12 +46678,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="451" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>31</v>
@@ -46773,12 +46776,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>95</v>
@@ -46871,12 +46874,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>31</v>
@@ -46969,12 +46972,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="454" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>31</v>
@@ -47065,12 +47068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>31</v>
@@ -47163,12 +47166,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>105</v>
@@ -47261,12 +47264,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>67</v>
@@ -47359,12 +47362,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="458" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>31</v>
@@ -47457,12 +47460,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>31</v>
@@ -47553,12 +47556,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>31</v>
@@ -47651,15 +47654,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C461" s="4" t="s">
         <v>552</v>
-      </c>
-      <c r="C461" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>32</v>
@@ -47749,12 +47752,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>111</v>
@@ -47845,12 +47848,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>67</v>
@@ -47943,12 +47946,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="464" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>31</v>
@@ -48041,15 +48044,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>79</v>
@@ -48139,12 +48142,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>31</v>
@@ -48237,12 +48240,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>31</v>
@@ -48335,12 +48338,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>31</v>
@@ -48433,12 +48436,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="469" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>31</v>
@@ -48531,12 +48534,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="470" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>31</v>
@@ -48629,12 +48632,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>31</v>
@@ -48727,12 +48730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>105</v>
@@ -48825,12 +48828,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="473" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>31</v>
@@ -48923,12 +48926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>31</v>
@@ -49019,12 +49022,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>67</v>
@@ -49117,12 +49120,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>31</v>
@@ -49215,12 +49218,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>117</v>
@@ -49313,12 +49316,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>177</v>
@@ -49411,12 +49414,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>31</v>
@@ -49509,12 +49512,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="480" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>31</v>
@@ -49607,12 +49610,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>95</v>
@@ -49705,12 +49708,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>31</v>
@@ -49801,12 +49804,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>31</v>
@@ -49899,12 +49902,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>31</v>
@@ -49997,12 +50000,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="485" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>31</v>
@@ -50095,12 +50098,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>67</v>
@@ -50191,15 +50194,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C487" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="D487" s="4" t="s">
         <v>32</v>
@@ -50289,12 +50292,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>31</v>
@@ -50387,15 +50390,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D489" s="4" t="s">
         <v>35</v>
@@ -50483,12 +50486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>31</v>
@@ -50581,12 +50584,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>31</v>
@@ -50679,12 +50682,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>31</v>
@@ -50777,12 +50780,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>31</v>
@@ -50875,15 +50878,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="494" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>55</v>
@@ -50973,12 +50976,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>31</v>
@@ -51071,12 +51074,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>31</v>
@@ -51167,12 +51170,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="497" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>31</v>
@@ -51265,12 +51268,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>31</v>
@@ -51363,12 +51366,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>117</v>
@@ -51461,15 +51464,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C500" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>32</v>
@@ -51559,7 +51562,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="501" spans="1:32" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/spain/18/spain_possession.xlsx
+++ b/data/league_data/spain/18/spain_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05575607-AD1F-3644-9A5B-7DF3D58B74EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10637BFE-A131-744A-9396-57F486F0A0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="590">
   <si>
     <t>Touches</t>
   </si>
@@ -1324,9 +1324,6 @@
     <t>Ousmane Dembélé</t>
   </si>
   <si>
-    <t>Naldo</t>
-  </si>
-  <si>
     <t>Yannick Carrasco</t>
   </si>
   <si>
@@ -1787,6 +1784,12 @@
   </si>
   <si>
     <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Naldo Gomes</t>
+  </si>
+  <si>
+    <t>Juanfran Moreno</t>
   </si>
 </sst>
 </file>
@@ -2656,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4655,7 +4658,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>76</v>
+        <v>589</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>31</v>
@@ -9549,7 +9552,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>31</v>
@@ -18063,7 +18066,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>31</v>
@@ -35979,7 +35982,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>434</v>
+        <v>588</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>95</v>
@@ -36077,7 +36080,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>319</v>
@@ -36175,7 +36178,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>31</v>
@@ -36271,7 +36274,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>31</v>
@@ -36369,7 +36372,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>31</v>
@@ -36467,7 +36470,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>31</v>
@@ -36565,7 +36568,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>31</v>
@@ -36663,7 +36666,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>31</v>
@@ -36761,7 +36764,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>31</v>
@@ -36859,10 +36862,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C350" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="D350" s="4" t="s">
         <v>32</v>
@@ -36957,7 +36960,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>31</v>
@@ -37055,7 +37058,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>87</v>
@@ -37153,7 +37156,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>31</v>
@@ -37251,7 +37254,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>65</v>
@@ -37349,7 +37352,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>31</v>
@@ -37447,7 +37450,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>31</v>
@@ -37545,7 +37548,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>31</v>
@@ -37643,7 +37646,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>31</v>
@@ -37739,7 +37742,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>31</v>
@@ -37835,7 +37838,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>87</v>
@@ -37933,7 +37936,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>137</v>
@@ -38031,7 +38034,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>371</v>
@@ -38129,7 +38132,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>31</v>
@@ -38227,7 +38230,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>31</v>
@@ -38325,7 +38328,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>100</v>
@@ -38423,7 +38426,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>72</v>
@@ -38521,7 +38524,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>31</v>
@@ -38617,7 +38620,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>209</v>
@@ -38715,7 +38718,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>31</v>
@@ -38813,7 +38816,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>31</v>
@@ -38911,7 +38914,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>87</v>
@@ -39009,7 +39012,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>31</v>
@@ -39107,7 +39110,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>31</v>
@@ -39205,7 +39208,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>31</v>
@@ -39303,7 +39306,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>31</v>
@@ -39401,7 +39404,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>43</v>
@@ -39497,7 +39500,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>31</v>
@@ -39595,7 +39598,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>31</v>
@@ -39693,7 +39696,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>340</v>
@@ -39791,7 +39794,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>31</v>
@@ -39889,7 +39892,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>31</v>
@@ -39987,7 +39990,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>319</v>
@@ -40085,7 +40088,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>87</v>
@@ -40183,7 +40186,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>243</v>
@@ -40281,7 +40284,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>117</v>
@@ -40379,7 +40382,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>67</v>
@@ -40477,7 +40480,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>31</v>
@@ -40575,7 +40578,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>31</v>
@@ -40673,7 +40676,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>65</v>
@@ -40771,7 +40774,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>31</v>
@@ -40869,7 +40872,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>31</v>
@@ -40967,7 +40970,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>31</v>
@@ -41163,7 +41166,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>31</v>
@@ -41261,7 +41264,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>31</v>
@@ -41359,7 +41362,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>67</v>
@@ -41457,7 +41460,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>31</v>
@@ -41555,7 +41558,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>50</v>
@@ -41653,7 +41656,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>31</v>
@@ -41703,7 +41706,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>31</v>
@@ -41801,7 +41804,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>137</v>
@@ -41899,7 +41902,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>87</v>
@@ -42095,7 +42098,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>31</v>
@@ -42193,7 +42196,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>100</v>
@@ -42291,7 +42294,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>67</v>
@@ -42387,7 +42390,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>300</v>
@@ -42485,7 +42488,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>67</v>
@@ -42583,7 +42586,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>31</v>
@@ -42681,7 +42684,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>95</v>
@@ -42779,7 +42782,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>31</v>
@@ -42877,7 +42880,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>31</v>
@@ -42975,7 +42978,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>371</v>
@@ -43073,7 +43076,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>31</v>
@@ -43171,7 +43174,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>87</v>
@@ -43269,7 +43272,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>31</v>
@@ -43367,7 +43370,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>50</v>
@@ -43465,10 +43468,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C418" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>508</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>85</v>
@@ -43563,7 +43566,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>371</v>
@@ -43661,7 +43664,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>31</v>
@@ -43759,7 +43762,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>117</v>
@@ -43855,7 +43858,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>87</v>
@@ -43953,7 +43956,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>31</v>
@@ -44049,7 +44052,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>67</v>
@@ -44145,7 +44148,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>243</v>
@@ -44243,7 +44246,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>31</v>
@@ -44341,7 +44344,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>31</v>
@@ -44439,10 +44442,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C428" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>518</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>32</v>
@@ -44537,7 +44540,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>65</v>
@@ -44633,7 +44636,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>31</v>
@@ -44731,10 +44734,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C431" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>47</v>
@@ -44829,7 +44832,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>300</v>
@@ -44927,7 +44930,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>31</v>
@@ -45023,7 +45026,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>67</v>
@@ -45121,7 +45124,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>31</v>
@@ -45219,7 +45222,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>188</v>
@@ -45317,7 +45320,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>67</v>
@@ -45413,7 +45416,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>371</v>
@@ -45511,7 +45514,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>31</v>
@@ -45609,7 +45612,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>209</v>
@@ -45707,7 +45710,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>31</v>
@@ -45803,7 +45806,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>31</v>
@@ -45901,10 +45904,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>79</v>
@@ -45999,7 +46002,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>117</v>
@@ -46097,7 +46100,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>105</v>
@@ -46195,7 +46198,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>31</v>
@@ -46391,7 +46394,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>31</v>
@@ -46489,7 +46492,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>31</v>
@@ -46585,7 +46588,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>31</v>
@@ -46683,7 +46686,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>31</v>
@@ -46781,7 +46784,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>95</v>
@@ -46879,7 +46882,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>31</v>
@@ -46977,7 +46980,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>31</v>
@@ -47073,7 +47076,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>31</v>
@@ -47171,7 +47174,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>105</v>
@@ -47269,7 +47272,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>67</v>
@@ -47367,7 +47370,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>31</v>
@@ -47465,7 +47468,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>31</v>
@@ -47561,7 +47564,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>31</v>
@@ -47659,10 +47662,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C461" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="C461" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="D461" s="4" t="s">
         <v>32</v>
@@ -47853,7 +47856,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>67</v>
@@ -47951,7 +47954,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>31</v>
@@ -48049,10 +48052,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D465" s="4" t="s">
         <v>79</v>
@@ -48147,7 +48150,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>31</v>
@@ -48245,7 +48248,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>31</v>
@@ -48343,7 +48346,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>31</v>
@@ -48441,7 +48444,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>31</v>
@@ -48539,7 +48542,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>31</v>
@@ -48637,7 +48640,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>31</v>
@@ -48735,7 +48738,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>105</v>
@@ -48833,7 +48836,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>31</v>
@@ -48931,7 +48934,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>31</v>
@@ -49027,7 +49030,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>67</v>
@@ -49125,7 +49128,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>31</v>
@@ -49223,7 +49226,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>117</v>
@@ -49321,7 +49324,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>177</v>
@@ -49419,7 +49422,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>31</v>
@@ -49517,7 +49520,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>31</v>
@@ -49615,7 +49618,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>95</v>
@@ -49713,7 +49716,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>31</v>
@@ -49809,7 +49812,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>31</v>
@@ -49907,7 +49910,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>31</v>
@@ -50005,7 +50008,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>31</v>
@@ -50103,7 +50106,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>67</v>
@@ -50199,10 +50202,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C487" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="D487" s="4" t="s">
         <v>32</v>
@@ -50297,7 +50300,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>31</v>
@@ -50395,7 +50398,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>371</v>
@@ -50491,7 +50494,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>31</v>
@@ -50589,7 +50592,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>31</v>
@@ -50687,7 +50690,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>31</v>
@@ -50785,7 +50788,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>31</v>
@@ -50883,10 +50886,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>55</v>
@@ -50981,7 +50984,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>31</v>
@@ -51079,7 +51082,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>31</v>
@@ -51175,7 +51178,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>31</v>
@@ -51273,7 +51276,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>31</v>
@@ -51371,7 +51374,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>117</v>
